--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -6712,26 +6712,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6736,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,22 +6756,26 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6784,12 +6784,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -10488,7 +10488,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
@@ -10516,12 +10516,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10536,7 +10536,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -10564,12 +10564,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -12792,7 +12792,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12802,16 +12802,16 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Terquim S.A.</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12840,7 +12840,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12850,16 +12850,16 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Terquim S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -6712,22 +6712,26 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6736,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,26 +6760,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6784,12 +6784,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -10488,7 +10488,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F212" t="n">
@@ -10516,12 +10516,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10536,7 +10536,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -10564,12 +10564,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -12792,7 +12792,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12802,16 +12802,16 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Terquim S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12840,7 +12840,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12850,16 +12850,16 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Terquim S.A.</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -12792,7 +12792,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12802,16 +12802,16 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Terquim S.A.</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12840,7 +12840,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12850,16 +12850,16 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Terquim S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -6712,26 +6712,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6736,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,22 +6756,26 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6784,12 +6784,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -10488,7 +10488,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
@@ -10516,12 +10516,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10536,7 +10536,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -10564,12 +10564,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -6712,22 +6712,26 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6736,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,26 +6760,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6784,12 +6784,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -10488,7 +10488,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F212" t="n">
@@ -10516,12 +10516,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10536,7 +10536,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -10564,12 +10564,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/03/2022</t>
+          <t>18/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6760,22 +6760,26 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -6784,12 +6788,12 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,26 +6808,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6832,12 +6832,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -10536,7 +10536,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -10564,12 +10564,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10584,7 +10584,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10599,7 +10599,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10612,12 +10612,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -12840,7 +12840,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12850,16 +12850,16 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Terquim S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12888,7 +12888,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12898,16 +12898,16 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Terquim S.A.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -6808,22 +6808,26 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6832,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,26 +6856,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6880,12 +6880,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -10584,7 +10584,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10599,7 +10599,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10612,12 +10612,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10660,12 +10660,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -12888,7 +12888,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12898,16 +12898,16 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Terquim S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12936,7 +12936,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12946,16 +12946,16 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Terquim S.A.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6808,26 +6808,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6832,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,22 +6852,26 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6880,12 +6880,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -10584,7 +10584,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10599,7 +10599,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10612,12 +10612,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10660,12 +10660,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -12888,7 +12888,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12898,16 +12898,16 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Terquim S.A.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12936,7 +12936,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12946,16 +12946,16 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Terquim S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Rivazzurra Solar</t>
+          <t>Planta Fotovoltaica La Marquesa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Rivazzurra Solar SpA</t>
+          <t>PFV LEYDA SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/03/2022</t>
+          <t>24/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155423463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155442527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica La Marquesa</t>
+          <t>Planta Fotovoltaica Rivazzurra Solar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PFV LEYDA SPA</t>
+          <t>Rivazzurra Solar SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>23/03/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155442527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155423463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -6808,22 +6808,26 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6832,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,26 +6856,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6880,12 +6880,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -10584,7 +10584,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10599,7 +10599,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10612,12 +10612,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10660,12 +10660,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -6808,26 +6808,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6832,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,22 +6852,26 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6880,12 +6880,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -10584,7 +10584,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10599,7 +10599,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10612,12 +10612,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10660,12 +10660,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -6808,22 +6808,26 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6832,12 +6836,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,26 +6856,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6880,12 +6880,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -10584,7 +10584,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10599,7 +10599,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10612,12 +10612,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10660,12 +10660,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -6808,26 +6808,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6832,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,22 +6852,26 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6880,12 +6880,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -10584,7 +10584,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10599,7 +10599,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10612,12 +10612,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10660,12 +10660,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -6808,26 +6808,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -6836,12 +6832,12 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,22 +6852,26 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6880,12 +6880,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -10584,7 +10584,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10599,7 +10599,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10612,12 +10612,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10660,12 +10660,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -12888,7 +12888,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12898,16 +12898,16 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Terquim S.A.</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12936,7 +12936,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12946,16 +12946,16 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Terquim S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -6856,22 +6856,26 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6880,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,26 +6904,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6928,12 +6928,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -8971,7 +8971,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>TRANSNET S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10660,12 +10660,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10680,7 +10680,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10695,7 +10695,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10708,12 +10708,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -6856,26 +6856,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6880,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,22 +6900,26 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6928,12 +6928,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10660,12 +10660,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10680,7 +10680,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10695,7 +10695,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10708,12 +10708,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -6856,22 +6856,26 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6880,12 +6884,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,26 +6904,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6928,12 +6928,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10660,12 +10660,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10680,7 +10680,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10695,7 +10695,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10708,12 +10708,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2022</t>
+          <t>23/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6856,26 +6856,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -6884,12 +6880,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,22 +6900,26 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6928,12 +6928,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10660,12 +10660,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10680,7 +10680,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10695,7 +10695,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10708,12 +10708,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -9975,7 +9975,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Bio Bio Cementos S.A.</t>
+          <t>UNACEM Chile S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -6904,22 +6904,26 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6928,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,26 +6952,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6976,12 +6976,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -10680,7 +10680,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10695,7 +10695,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10708,12 +10708,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10728,7 +10728,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10743,7 +10743,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -10756,12 +10756,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -16263,11 +16263,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Consorcio Maderero S.A.</t>
+          <t>Compañía Astilladora Concepción Limitada (COMACO Ltda.)</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>530</v>
+        <v>470</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16281,7 +16281,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16311,11 +16311,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Compañía Astilladora Concepción Limitada (COMACO Ltda.)</t>
+          <t>Consorcio Maderero S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -6904,26 +6904,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6928,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,22 +6948,26 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6976,12 +6976,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -10680,7 +10680,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10695,7 +10695,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10708,12 +10708,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10728,7 +10728,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10743,7 +10743,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -10756,12 +10756,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -16263,11 +16263,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Compañía Astilladora Concepción Limitada (COMACO Ltda.)</t>
+          <t>Consorcio Maderero S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16281,7 +16281,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16311,11 +16311,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Consorcio Maderero S.A.</t>
+          <t>Compañía Astilladora Concepción Limitada (COMACO Ltda.)</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>530</v>
+        <v>470</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/06/2022</t>
+          <t>24/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6904,26 +6904,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6928,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,22 +6948,26 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6976,12 +6976,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -10680,7 +10680,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10695,7 +10695,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10708,12 +10708,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10728,7 +10728,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10743,7 +10743,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -10756,12 +10756,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -16263,11 +16263,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Compañía Astilladora Concepción Limitada (COMACO Ltda.)</t>
+          <t>Consorcio Maderero S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16281,7 +16281,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16311,11 +16311,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Consorcio Maderero S.A.</t>
+          <t>Compañía Astilladora Concepción Limitada (COMACO Ltda.)</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>530</v>
+        <v>470</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -6904,22 +6904,26 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6928,12 +6932,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,26 +6952,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6976,12 +6976,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -10680,7 +10680,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10695,7 +10695,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10708,12 +10708,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10728,7 +10728,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10743,7 +10743,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -10756,12 +10756,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -6904,26 +6904,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6932,12 +6928,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,22 +6948,26 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6976,12 +6976,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -10680,7 +10680,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10695,7 +10695,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10708,12 +10708,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10728,7 +10728,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10743,7 +10743,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -10756,12 +10756,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -6952,22 +6952,26 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6976,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,26 +7000,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7024,12 +7024,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -10728,7 +10728,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10743,7 +10743,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -10756,12 +10756,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10776,7 +10776,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10804,12 +10804,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -16311,11 +16311,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Consorcio Maderero S.A.</t>
+          <t>Compañía Astilladora Concepción Limitada (COMACO Ltda.)</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>530</v>
+        <v>470</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16359,11 +16359,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Compañía Astilladora Concepción Limitada (COMACO Ltda.)</t>
+          <t>Consorcio Maderero S.A.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -6952,26 +6952,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6976,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,22 +6996,26 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7024,12 +7024,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -10728,7 +10728,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10743,7 +10743,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -10756,12 +10756,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10776,7 +10776,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10804,12 +10804,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -16311,11 +16311,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Compañía Astilladora Concepción Limitada (COMACO Ltda.)</t>
+          <t>Consorcio Maderero S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16359,11 +16359,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Consorcio Maderero S.A.</t>
+          <t>Compañía Astilladora Concepción Limitada (COMACO Ltda.)</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>530</v>
+        <v>470</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -6952,22 +6952,26 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6976,12 +6980,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,26 +7000,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7024,12 +7024,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -10728,7 +10728,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10743,7 +10743,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -10756,12 +10756,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10776,7 +10776,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10804,12 +10804,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -6952,26 +6952,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6980,12 +6976,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,22 +6996,26 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7024,12 +7024,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -10728,7 +10728,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10743,7 +10743,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -10756,12 +10756,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10776,7 +10776,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10804,12 +10804,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7000,22 +7000,26 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7024,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,26 +7048,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7072,12 +7072,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10776,7 +10776,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10804,12 +10804,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10824,7 +10824,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10839,7 +10839,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -10852,12 +10852,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -16359,11 +16359,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Consorcio Maderero S.A.</t>
+          <t>Compañía Astilladora Concepción Limitada (COMACO Ltda.)</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>530</v>
+        <v>470</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16407,11 +16407,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Compañía Astilladora Concepción Limitada (COMACO Ltda.)</t>
+          <t>Consorcio Maderero S.A.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7000,26 +7000,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7024,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,22 +7044,26 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7072,12 +7072,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10776,7 +10776,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10804,12 +10804,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10824,7 +10824,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10839,7 +10839,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -10852,12 +10852,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -16359,11 +16359,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Compañía Astilladora Concepción Limitada (COMACO Ltda.)</t>
+          <t>Consorcio Maderero S.A.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16407,11 +16407,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Consorcio Maderero S.A.</t>
+          <t>Compañía Astilladora Concepción Limitada (COMACO Ltda.)</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>530</v>
+        <v>470</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -7000,22 +7000,26 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7024,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,26 +7048,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7072,12 +7072,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10776,7 +10776,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10804,12 +10804,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10824,7 +10824,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10839,7 +10839,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -10852,12 +10852,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7000,26 +7000,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7024,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,22 +7044,26 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7072,12 +7072,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10776,7 +10776,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10804,12 +10804,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10824,7 +10824,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10839,7 +10839,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -10852,12 +10852,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09/11/2022</t>
+          <t>16/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7000,22 +7000,26 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7024,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,26 +7048,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7072,12 +7072,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10776,7 +10776,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10804,12 +10804,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10824,7 +10824,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10839,7 +10839,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -10852,12 +10852,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7000,22 +7000,26 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7024,12 +7028,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,26 +7048,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7072,12 +7072,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10776,7 +10776,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10804,12 +10804,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10824,7 +10824,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10839,7 +10839,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -10852,12 +10852,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -13080,7 +13080,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13090,16 +13090,16 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Terquim S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13128,7 +13128,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13138,16 +13138,16 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Terquim S.A.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7000,26 +7000,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7028,12 +7024,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,22 +7044,26 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7072,12 +7072,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10776,7 +10776,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10804,12 +10804,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10824,7 +10824,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10839,7 +10839,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -10852,12 +10852,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -13080,7 +13080,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13090,16 +13090,16 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Terquim S.A.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13128,7 +13128,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13138,16 +13138,16 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Terquim S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7048,22 +7048,26 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7072,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,26 +7096,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7120,12 +7120,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -10824,7 +10824,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10839,7 +10839,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -10852,12 +10852,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10872,7 +10872,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10887,7 +10887,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -10900,12 +10900,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7048,26 +7048,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7072,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,22 +7092,26 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7120,12 +7120,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -10824,7 +10824,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10839,7 +10839,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -10852,12 +10852,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10872,7 +10872,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10887,7 +10887,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -10900,12 +10900,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29/12/2022</t>
+          <t>06/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7048,22 +7048,26 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7072,12 +7076,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,26 +7096,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7120,12 +7120,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -10824,7 +10824,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10839,7 +10839,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -10852,12 +10852,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10872,7 +10872,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10887,7 +10887,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -10900,12 +10900,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -13128,7 +13128,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13138,16 +13138,16 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Terquim S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13176,7 +13176,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13186,16 +13186,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Terquim S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7048,26 +7048,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7076,12 +7072,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,22 +7092,26 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7120,12 +7120,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -10824,7 +10824,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10839,7 +10839,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -10852,12 +10852,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10872,7 +10872,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10887,7 +10887,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -10900,12 +10900,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -13128,7 +13128,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13138,16 +13138,16 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Terquim S.A.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13176,7 +13176,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13186,16 +13186,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Terquim S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7096,22 +7096,26 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7120,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,26 +7144,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7168,12 +7168,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -10872,7 +10872,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10887,7 +10887,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -10900,12 +10900,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10920,7 +10920,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10935,7 +10935,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10948,12 +10948,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7096,26 +7096,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7120,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,22 +7140,26 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7168,12 +7168,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -10872,7 +10872,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10887,7 +10887,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -10900,12 +10900,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10920,7 +10920,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10935,7 +10935,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10948,12 +10948,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -1028,7 +1028,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7096,22 +7096,26 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7120,12 +7124,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,26 +7144,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7168,12 +7168,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -10872,7 +10872,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10887,7 +10887,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -10900,12 +10900,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10920,7 +10920,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10935,7 +10935,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10948,12 +10948,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -13176,7 +13176,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13186,16 +13186,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Terquim S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13224,7 +13224,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13234,16 +13234,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Terquim S.A.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7096,26 +7096,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7124,12 +7120,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,22 +7140,26 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7168,12 +7168,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -10872,7 +10872,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10887,7 +10887,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -10900,12 +10900,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10920,7 +10920,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10935,7 +10935,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10948,12 +10948,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -13176,7 +13176,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13186,16 +13186,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Terquim S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13224,7 +13224,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13234,16 +13234,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Terquim S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>27/01/2023</t>
+          <t>03/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7144,22 +7144,26 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7168,12 +7172,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,26 +7192,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7216,12 +7216,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -10920,7 +10920,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10935,7 +10935,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10948,12 +10948,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10968,7 +10968,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10983,7 +10983,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -10996,12 +10996,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -13224,7 +13224,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13234,16 +13234,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Terquim S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13272,7 +13272,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13282,16 +13282,16 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Terquim S.A.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7144,26 +7144,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7172,12 +7168,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,22 +7188,26 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7216,12 +7216,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -10920,7 +10920,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10935,7 +10935,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -10948,12 +10948,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10968,7 +10968,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10983,7 +10983,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -10996,12 +10996,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -13224,7 +13224,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13234,16 +13234,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Terquim S.A.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13272,7 +13272,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13282,16 +13282,16 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Terquim S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7192,22 +7192,26 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7216,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,26 +7240,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7264,12 +7264,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -10968,7 +10968,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10983,7 +10983,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -10996,12 +10996,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -11044,12 +11044,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7192,26 +7192,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7216,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,22 +7236,26 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7264,12 +7264,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -10968,7 +10968,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10983,7 +10983,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -10996,12 +10996,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -11044,12 +11044,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ampliación de almacenaje de sustancias peligrosas en instalaciones de Puerto Columbo S.A. Depósito San Antonio</t>
+          <t>Autorización Zonas de Acopio Transitorio de Mercancías Peligrosas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Puerto Columbo S.A</t>
+          <t>San Antonio Terminal Internacional S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10/02/2023</t>
+          <t>14/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158620583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158601473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Autorización Zonas de Acopio Transitorio de Mercancías Peligrosas</t>
+          <t>Ampliación de almacenaje de sustancias peligrosas en instalaciones de Puerto Columbo S.A. Depósito San Antonio</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>San Antonio Terminal Internacional S.A.</t>
+          <t>Puerto Columbo S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>07/02/2023</t>
+          <t>10/02/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158601473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158620583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Autorización Zonas de Acopio Transitorio de Mercancías Peligrosas</t>
+          <t>Ampliación de almacenaje de sustancias peligrosas en instalaciones de Puerto Columbo S.A. Depósito San Antonio</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>San Antonio Terminal Internacional S.A.</t>
+          <t>Puerto Columbo S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/02/2023</t>
+          <t>17/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158601473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158620583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ampliación de almacenaje de sustancias peligrosas en instalaciones de Puerto Columbo S.A. Depósito San Antonio</t>
+          <t>Autorización Zonas de Acopio Transitorio de Mercancías Peligrosas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Puerto Columbo S.A</t>
+          <t>San Antonio Terminal Internacional S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10/02/2023</t>
+          <t>14/02/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158620583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158601473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -7192,22 +7192,26 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7216,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,26 +7240,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7264,12 +7264,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -10968,7 +10968,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10983,7 +10983,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -10996,12 +10996,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -11044,12 +11044,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7240,22 +7240,26 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7264,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,26 +7288,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7312,12 +7312,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -11044,12 +11044,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11064,7 +11064,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11079,7 +11079,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -11092,12 +11092,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -13320,7 +13320,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13330,16 +13330,16 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Terquim S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13368,7 +13368,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13378,16 +13378,16 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Terquim S.A.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7240,26 +7240,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7264,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,22 +7284,26 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7312,12 +7312,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -11044,12 +11044,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11064,7 +11064,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11079,7 +11079,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -11092,12 +11092,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -13320,7 +13320,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13330,16 +13330,16 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Terquim S.A.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13368,7 +13368,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13378,16 +13378,16 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Terquim S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/02/2023</t>
+          <t>28/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7240,22 +7240,26 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7264,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,26 +7288,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7312,12 +7312,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -11044,12 +11044,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11064,7 +11064,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11079,7 +11079,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -11092,12 +11092,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7240,26 +7240,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7264,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,22 +7284,26 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7312,12 +7312,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -11044,12 +11044,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11064,7 +11064,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11079,7 +11079,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -11092,12 +11092,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Parque Solar Leyda SpA.</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Parque Solar Leyda SpA.</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -7240,22 +7240,26 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7264,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,26 +7288,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7312,12 +7312,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -11044,12 +11044,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11064,7 +11064,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11079,7 +11079,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -11092,12 +11092,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -1028,7 +1028,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -7240,22 +7240,26 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7264,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,26 +7288,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7312,12 +7312,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -11044,12 +11044,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11064,7 +11064,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11079,7 +11079,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -11092,12 +11092,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -980,7 +980,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -7240,26 +7240,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7264,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,22 +7284,26 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7312,12 +7312,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -11044,12 +11044,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11064,7 +11064,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11079,7 +11079,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -11092,12 +11092,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7288,22 +7288,26 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7312,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7332,26 +7336,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7360,12 +7360,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -11064,7 +11064,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11079,7 +11079,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -11092,12 +11092,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11112,7 +11112,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11127,7 +11127,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -11140,12 +11140,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7288,26 +7288,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7312,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,22 +7332,26 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7360,12 +7360,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -11064,7 +11064,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11079,7 +11079,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -11092,12 +11092,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11112,7 +11112,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11127,7 +11127,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -11140,12 +11140,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08/05/2023</t>
+          <t>15/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7288,22 +7288,26 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7312,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7332,26 +7336,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7360,12 +7360,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -11064,7 +11064,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11079,7 +11079,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -11092,12 +11092,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11112,7 +11112,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11127,7 +11127,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -11140,12 +11140,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7336,22 +7336,26 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7360,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,26 +7384,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7408,12 +7408,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -11112,7 +11112,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11127,7 +11127,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -11140,12 +11140,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11175,7 +11175,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -11188,12 +11188,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7336,26 +7336,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7360,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,22 +7380,26 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7408,12 +7408,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -11112,7 +11112,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11127,7 +11127,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -11140,12 +11140,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11175,7 +11175,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -11188,12 +11188,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>07/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7336,22 +7336,26 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7360,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,26 +7384,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7408,12 +7408,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -11112,7 +11112,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11127,7 +11127,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -11140,12 +11140,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11175,7 +11175,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -11188,12 +11188,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -5623,7 +5623,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Sociedad Recuperadora Chile Metal Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F110" t="n">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7384,26 +7384,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7408,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,22 +7428,26 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7456,12 +7456,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11175,7 +11175,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -11188,12 +11188,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11208,7 +11208,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11223,7 +11223,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -11236,12 +11236,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7384,22 +7384,26 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7408,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7428,26 +7432,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7456,12 +7456,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11175,7 +11175,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -11188,12 +11188,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11208,7 +11208,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11223,7 +11223,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -11236,12 +11236,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7384,22 +7384,26 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7408,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7428,26 +7432,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7456,12 +7456,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11175,7 +11175,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -11188,12 +11188,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11208,7 +11208,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11223,7 +11223,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -11236,12 +11236,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7432,26 +7432,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7460,12 +7456,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,22 +7476,26 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7504,12 +7504,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -11208,7 +11208,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11223,7 +11223,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -11236,12 +11236,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11256,7 +11256,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11271,7 +11271,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -11284,12 +11284,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7432,22 +7432,26 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7456,12 +7460,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7476,26 +7480,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7504,12 +7504,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -11208,7 +11208,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11223,7 +11223,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -11236,12 +11236,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11256,7 +11256,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11271,7 +11271,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -11284,12 +11284,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7480,22 +7480,26 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7504,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,26 +7528,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7552,12 +7552,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -11256,7 +11256,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11271,7 +11271,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -11284,12 +11284,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11304,7 +11304,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11319,7 +11319,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11332,12 +11332,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -424,40 +424,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica HVDC Kimal - Lo Aguirre</t>
+          <t>Aumento de Capacidad Zona de Almacenamiento de Mercancías Peligrosas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Conexión Kimal Lo Aguirre S.A</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.48</v>
+        <v>400</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>24/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160211381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160246969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,30 +472,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad Zona de Almacenamiento de Mercancías Peligrosas</t>
+          <t>Línea de Transmisión Eléctrica HVDC Kimal - Lo Aguirre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Conexión Kimal Lo Aguirre S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>400</v>
+        <v>1.48</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160246969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160211381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7480,26 +7480,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7504,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,22 +7524,26 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7552,12 +7552,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -11256,7 +11256,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11271,7 +11271,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -11284,12 +11284,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11304,7 +11304,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11319,7 +11319,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11332,12 +11332,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -424,30 +424,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad Zona de Almacenamiento de Mercancías Peligrosas</t>
+          <t>Línea de Transmisión Eléctrica HVDC Kimal - Lo Aguirre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Conexión Kimal Lo Aguirre S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>1.48</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160246969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160211381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,40 +472,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica HVDC Kimal - Lo Aguirre</t>
+          <t>Aumento de Capacidad Zona de Almacenamiento de Mercancías Peligrosas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Conexión Kimal Lo Aguirre S.A</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.48</v>
+        <v>400</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>24/10/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160211381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160246969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7528,22 +7528,26 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7552,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,26 +7576,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7600,12 +7600,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -11304,7 +11304,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11319,7 +11319,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11332,12 +11332,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11352,7 +11352,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11367,7 +11367,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11380,12 +11380,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -13608,7 +13608,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13618,16 +13618,16 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Terquim S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13656,7 +13656,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13666,16 +13666,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Terquim S.A.</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7528,26 +7528,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7552,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,22 +7572,26 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7600,12 +7600,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -11304,7 +11304,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11319,7 +11319,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11332,12 +11332,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11352,7 +11352,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11367,7 +11367,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11380,12 +11380,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -13608,7 +13608,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13618,16 +13618,16 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Terquim S.A.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13656,7 +13656,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13666,16 +13666,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Terquim S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/11/2023</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7528,26 +7528,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7552,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,22 +7572,26 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7600,12 +7600,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -11304,7 +11304,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11319,7 +11319,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11332,12 +11332,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11352,7 +11352,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11367,7 +11367,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11380,12 +11380,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -13608,7 +13608,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13618,16 +13618,16 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Terquim S.A.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13656,7 +13656,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13666,16 +13666,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Terquim S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7528,22 +7528,26 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7552,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,26 +7576,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7600,12 +7600,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -11304,7 +11304,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11319,7 +11319,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11332,12 +11332,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11352,7 +11352,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11367,7 +11367,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11380,12 +11380,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7528,26 +7528,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7552,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,22 +7572,26 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7600,12 +7600,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -11304,7 +11304,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11319,7 +11319,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -11332,12 +11332,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11352,7 +11352,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11367,7 +11367,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11380,12 +11380,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7576,22 +7576,26 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7600,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,26 +7624,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7648,12 +7648,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -11352,7 +11352,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11367,7 +11367,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11380,12 +11380,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11400,7 +11400,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11415,7 +11415,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11428,12 +11428,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -13656,7 +13656,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13666,16 +13666,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Terquim S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13704,7 +13704,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13714,16 +13714,16 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Terquim S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7576,26 +7576,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7600,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,22 +7620,26 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7648,12 +7648,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -11352,7 +11352,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11367,7 +11367,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11380,12 +11380,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11400,7 +11400,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11415,7 +11415,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11428,12 +11428,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -13656,7 +13656,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13666,16 +13666,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Terquim S.A.</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13704,7 +13704,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Operación de Terminal de Graneles Líquidos en Sitio 3, Molo Sur, Puerto San Antonio (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13714,16 +13714,16 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Terquim S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=929377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/11/2023</t>
+          <t>27/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7576,22 +7576,26 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7600,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,26 +7624,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7648,12 +7648,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -11352,7 +11352,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11367,7 +11367,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11380,12 +11380,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11400,7 +11400,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11415,7 +11415,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11428,12 +11428,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">

--- a/data/San Antonio.xlsx
+++ b/data/San Antonio.xlsx
@@ -7576,26 +7576,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7600,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,22 +7620,26 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Saneamiento de Terreno Planta Baja ESSO San Antonio</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr"/>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7648,12 +7648,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4222203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -11352,7 +11352,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11367,7 +11367,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -11380,12 +11380,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11400,7 +11400,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11415,7 +11415,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11428,12 +11428,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
